--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject49.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject49.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.9214076188898499</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -182,7 +182,7 @@
         <v>0</v>
       </c>
       <c r="S1" s="0">
-        <v>0</v>
+        <v>0.67834037941239855</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
@@ -284,19 +284,19 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>0</v>
+        <v>0.89931623710093778</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
       </c>
       <c r="BC1" s="0">
-        <v>0</v>
+        <v>0.76479450725374787</v>
       </c>
       <c r="BD1" s="0">
         <v>0</v>
       </c>
       <c r="BE1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF1" s="0">
         <v>0</v>
@@ -305,7 +305,7 @@
         <v>0</v>
       </c>
       <c r="BH1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI1" s="0">
         <v>0</v>
@@ -334,13 +334,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.56850399911846883</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -352,7 +352,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>0</v>
+        <v>0.97399756078742827</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="0">
         <v>0</v>
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="0">
-        <v>0</v>
+        <v>0.60827426370460924</v>
       </c>
       <c r="U2" s="0">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="0">
-        <v>0</v>
+        <v>0.8470181232686701</v>
       </c>
       <c r="AI2" s="0">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.86931044066131258</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="0">
-        <v>0</v>
+        <v>0.8483014726529684</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="0">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="0">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>0</v>
+        <v>0.63851507567667687</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0</v>
+        <v>0.69592110629635295</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.96828851279161354</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>0</v>
+        <v>0.85745035192893249</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="0">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="0">
-        <v>0</v>
+        <v>0.93289074919402015</v>
       </c>
       <c r="BF4" s="0">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.53786889864089349</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1027,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>0</v>
+        <v>0.9602477469803502</v>
       </c>
       <c r="AA5" s="0">
-        <v>0</v>
+        <v>0.61736373846842474</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="0">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>0</v>
+        <v>0.95395960836827054</v>
       </c>
       <c r="AO5" s="0">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="0">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="0">
-        <v>0</v>
+        <v>0.80976970869232301</v>
       </c>
       <c r="AY5" s="0">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -1167,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.95002064730576374</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>0</v>
+        <v>0.65331949248378374</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="AT6" s="0">
-        <v>0</v>
+        <v>0.97511844814730009</v>
       </c>
       <c r="AU6" s="0">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="0">
-        <v>0</v>
+        <v>0.98600872639699255</v>
       </c>
       <c r="BL6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>0</v>
+        <v>0.57763629035995512</v>
       </c>
     </row>
     <row r="7">
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>0.52715600783739847</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>0</v>
+        <v>0.81647444380795808</v>
       </c>
       <c r="U7" s="0">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="0">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="0">
-        <v>0</v>
+        <v>0.54672078154829795</v>
       </c>
     </row>
     <row r="8">
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>0</v>
+        <v>0.9215184330405326</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0</v>
+        <v>0.6703698810814247</v>
       </c>
       <c r="L8" s="0">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="0">
         <v>0</v>
@@ -1678,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="AK8" s="0">
-        <v>0</v>
+        <v>0.83443671216032833</v>
       </c>
       <c r="AL8" s="0">
         <v>0</v>
       </c>
       <c r="AM8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="0">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.6734821408147913</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1827,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="R9" s="0">
-        <v>0</v>
+        <v>0.94381600460354953</v>
       </c>
       <c r="S9" s="0">
         <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="0">
         <v>0</v>
       </c>
       <c r="V9" s="0">
-        <v>0</v>
+        <v>0.94171323209482627</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="0">
         <v>0</v>
@@ -2006,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.66913543994272873</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.65778484775614743</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.57407535223811357</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2039,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="0">
         <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>0</v>
+        <v>0.57066536102915744</v>
       </c>
       <c r="W10" s="0">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="AH10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="0">
         <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="AM10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="0">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="0">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="0">
-        <v>0</v>
+        <v>0.51319266311995537</v>
       </c>
       <c r="BB10" s="0">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="0">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>0</v>
+        <v>0.73629270878278896</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.69014462900448814</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.70412287147315644</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="0">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="BL11" s="0">
-        <v>0</v>
+        <v>0.72533955962475238</v>
       </c>
       <c r="BM11" s="0">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="BO11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP11" s="0">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.91003265659684751</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.9113797286812908</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>0</v>
+        <v>0.76426821035567083</v>
       </c>
       <c r="W12" s="0">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="AF12" s="0">
-        <v>0</v>
+        <v>0.56681366766530317</v>
       </c>
       <c r="AG12" s="0">
         <v>0</v>
       </c>
       <c r="AH12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="0">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="0">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="0">
         <v>0</v>
@@ -2559,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="BD12" s="0">
-        <v>0</v>
+        <v>0.70905830735678421</v>
       </c>
       <c r="BE12" s="0">
         <v>0</v>
       </c>
       <c r="BF12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="0">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.72215456977848436</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.74496013776022685</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="0">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="0">
-        <v>0</v>
+        <v>0.6910549470509737</v>
       </c>
       <c r="AR13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>0</v>
+        <v>0.65170835057162924</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="BE13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="0">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="0">
-        <v>0</v>
+        <v>0.67302503350472676</v>
       </c>
       <c r="BN13" s="0">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>0</v>
+        <v>0.55240719097303892</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2887,13 +2887,13 @@
         <v>0</v>
       </c>
       <c r="AB14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="0">
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>0</v>
+        <v>0.91429993199943538</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="0">
-        <v>0</v>
+        <v>0.75752671727213627</v>
       </c>
       <c r="AM14" s="0">
         <v>0</v>
@@ -2935,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="AR14" s="0">
-        <v>0</v>
+        <v>0.60889779262144206</v>
       </c>
       <c r="AS14" s="0">
         <v>0</v>
       </c>
       <c r="AT14" s="0">
-        <v>0</v>
+        <v>0.65722853594477004</v>
       </c>
       <c r="AU14" s="0">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="BH14" s="0">
-        <v>0</v>
+        <v>0.8785435366797083</v>
       </c>
       <c r="BI14" s="0">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
+        <v>0.79724292393237639</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="0">
-        <v>0</v>
+        <v>0.97357544715501299</v>
       </c>
       <c r="V15" s="0">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="0">
-        <v>0</v>
+        <v>0.60907155970167381</v>
       </c>
       <c r="AL15" s="0">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="0">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="0">
-        <v>0</v>
+        <v>0.97399507759691495</v>
       </c>
       <c r="BG15" s="0">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="0">
-        <v>0</v>
+        <v>0.62070046210816132</v>
       </c>
       <c r="V16" s="0">
-        <v>0</v>
+        <v>0.87716038845066935</v>
       </c>
       <c r="W16" s="0">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="0">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="0">
-        <v>0</v>
+        <v>0.73175859951152589</v>
       </c>
       <c r="AC17" s="0">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="BL17" s="0">
-        <v>0</v>
+        <v>0.8153965331121712</v>
       </c>
       <c r="BM17" s="0">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="0">
-        <v>0</v>
+        <v>0.78804499687715934</v>
       </c>
       <c r="J18" s="0">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="M18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="0">
         <v>0</v>
       </c>
       <c r="O18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="0">
-        <v>0</v>
+        <v>0.50855696500898961</v>
       </c>
       <c r="AE18" s="0">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="0">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0</v>
+        <v>0.55819871789602149</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
@@ -3845,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3965,16 +3965,16 @@
         <v>0</v>
       </c>
       <c r="AR19" s="0">
-        <v>0</v>
+        <v>0.94317411680165097</v>
       </c>
       <c r="AS19" s="0">
-        <v>0</v>
+        <v>0.64736556033184378</v>
       </c>
       <c r="AT19" s="0">
         <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="AZ19" s="0">
-        <v>0</v>
+        <v>0.97933868041102157</v>
       </c>
       <c r="BA19" s="0">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="0">
-        <v>0</v>
+        <v>0.85706582242758311</v>
       </c>
       <c r="C20" s="0">
         <v>0</v>
@@ -4060,16 +4060,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="0">
-        <v>0</v>
+        <v>0.88943863170925663</v>
       </c>
       <c r="H20" s="0">
         <v>0</v>
       </c>
       <c r="I20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.96400808557387596</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4114,10 +4114,10 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>0</v>
+        <v>0.90511342795354999</v>
       </c>
       <c r="AA20" s="0">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>0</v>
+        <v>0.59344109396478439</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="0">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="0">
         <v>0</v>
@@ -4290,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="0">
-        <v>0</v>
+        <v>0.99284325150558228</v>
       </c>
       <c r="P21" s="0">
-        <v>0</v>
+        <v>0.64728889352569086</v>
       </c>
       <c r="Q21" s="0">
         <v>0</v>
@@ -4305,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.64162247455063959</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="0">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="BC21" s="0">
-        <v>0</v>
+        <v>0.69079457442931336</v>
       </c>
       <c r="BD21" s="0">
         <v>0</v>
@@ -4478,16 +4478,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="0">
-        <v>0</v>
+        <v>0.66791656278969525</v>
       </c>
       <c r="J22" s="0">
-        <v>0</v>
+        <v>0.76014910123359036</v>
       </c>
       <c r="K22" s="0">
         <v>0</v>
       </c>
       <c r="L22" s="0">
-        <v>0</v>
+        <v>0.93382542006045366</v>
       </c>
       <c r="M22" s="0">
         <v>0</v>
@@ -4499,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="0">
-        <v>0</v>
+        <v>0.75580490525779243</v>
       </c>
       <c r="Q22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="0">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.94369626703090748</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.80533074282435058</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.56418746681899479</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="0">
-        <v>0</v>
+        <v>0.79107277350997995</v>
       </c>
       <c r="AY22" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4723,13 +4723,13 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.83065961999859761</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.52891465032850138</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>0</v>
+        <v>0.78344425281641872</v>
       </c>
       <c r="AI23" s="0">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="0">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="0">
-        <v>0</v>
+        <v>0.79078264332945647</v>
       </c>
       <c r="AT23" s="0">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="BD23" s="0">
-        <v>0</v>
+        <v>0.82997113978693848</v>
       </c>
       <c r="BE23" s="0">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="BH23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="0">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="BN23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO23" s="0">
         <v>0</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.5357179668487233</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="0">
-        <v>0</v>
+        <v>0.75431305640523827</v>
       </c>
       <c r="AS24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0</v>
+        <v>0.87299109618799053</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>0</v>
+        <v>0.71982270775478008</v>
       </c>
       <c r="AZ24" s="0">
-        <v>0</v>
+        <v>0.76412877547509472</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="0">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="BP24" s="0">
-        <v>1</v>
+        <v>0.54531890786036885</v>
       </c>
     </row>
     <row r="25">
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="0">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="AH25" s="0">
-        <v>0</v>
+        <v>0.55545868816065846</v>
       </c>
       <c r="AI25" s="0">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="AM25" s="0">
-        <v>0</v>
+        <v>0.87936508436470806</v>
       </c>
       <c r="AN25" s="0">
         <v>0</v>
@@ -5198,13 +5198,13 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="0">
         <v>0</v>
       </c>
       <c r="AS25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="0">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="AV25" s="0">
-        <v>0</v>
+        <v>0.88185160381032546</v>
       </c>
       <c r="AW25" s="0">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>0</v>
+        <v>0.99877772717152946</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>0</v>
+        <v>0.75739185201588199</v>
       </c>
       <c r="U26" s="0">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="0">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="0">
         <v>0</v>
@@ -5434,13 +5434,13 @@
         <v>0</v>
       </c>
       <c r="BA26" s="0">
-        <v>0</v>
+        <v>0.70935522835363041</v>
       </c>
       <c r="BB26" s="0">
         <v>0</v>
       </c>
       <c r="BC26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="0">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>0</v>
+        <v>0.63013367379260687</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="0">
-        <v>0</v>
+        <v>0.89721737022191972</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="AV27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="0">
         <v>0</v>
@@ -5643,10 +5643,10 @@
         <v>0</v>
       </c>
       <c r="BB27" s="0">
-        <v>0</v>
+        <v>0.7342241939668448</v>
       </c>
       <c r="BC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27" s="0">
         <v>0</v>
@@ -5676,13 +5676,13 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
       </c>
       <c r="BO27" s="0">
-        <v>0</v>
+        <v>0.97269174691881521</v>
       </c>
       <c r="BP27" s="0">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="0">
         <v>0</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>0</v>
+        <v>0.9907399758149753</v>
       </c>
       <c r="R28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.92383713687393909</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="AX28" s="0">
-        <v>0</v>
+        <v>0.97751722117684636</v>
       </c>
       <c r="AY28" s="0">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="0">
         <v>0</v>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="BI28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ28" s="0">
         <v>0</v>
@@ -5879,13 +5879,13 @@
         <v>0</v>
       </c>
       <c r="BL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM28" s="0">
         <v>0</v>
       </c>
       <c r="BN28" s="0">
-        <v>0</v>
+        <v>0.6796119477980993</v>
       </c>
       <c r="BO28" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -5986,13 +5986,13 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
       </c>
       <c r="AG29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="0">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="0">
-        <v>0</v>
+        <v>0.82589720752407547</v>
       </c>
       <c r="AL29" s="0">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="AX29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY29" s="0">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="BC29" s="0">
-        <v>0</v>
+        <v>0.90155234351662961</v>
       </c>
       <c r="BD29" s="0">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6108,13 +6108,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="0">
-        <v>0</v>
+        <v>0.65361971362018489</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
       </c>
       <c r="E30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0</v>
+        <v>0.77450865920358114</v>
       </c>
       <c r="O30" s="0">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="0">
-        <v>0</v>
+        <v>0.8853777550643136</v>
       </c>
       <c r="S30" s="0">
         <v>0</v>
@@ -6177,13 +6177,13 @@
         <v>0</v>
       </c>
       <c r="Z30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="0">
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.9918568157891996</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="0">
-        <v>0</v>
+        <v>0.89877826942234884</v>
       </c>
       <c r="AK30" s="0">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="0">
-        <v>0</v>
+        <v>0.91152595325432406</v>
       </c>
       <c r="AO30" s="0">
         <v>0</v>
@@ -6392,16 +6392,16 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.54628013872307912</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="AO31" s="0">
-        <v>0</v>
+        <v>0.7020298106941536</v>
       </c>
       <c r="AP31" s="0">
         <v>0</v>
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="BC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="0">
         <v>0</v>
@@ -6482,10 +6482,10 @@
         <v>0</v>
       </c>
       <c r="BG31" s="0">
-        <v>0</v>
+        <v>0.97045767969754337</v>
       </c>
       <c r="BH31" s="0">
-        <v>0</v>
+        <v>0.94666957917397765</v>
       </c>
       <c r="BI31" s="0">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="0">
-        <v>0</v>
+        <v>0.65296125468578081</v>
       </c>
       <c r="M32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.61075012192089551</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6622,16 +6622,16 @@
         <v>0</v>
       </c>
       <c r="AK32" s="0">
-        <v>0</v>
+        <v>0.98036363278298966</v>
       </c>
       <c r="AL32" s="0">
-        <v>0</v>
+        <v>0.8857786333997083</v>
       </c>
       <c r="AM32" s="0">
         <v>0</v>
       </c>
       <c r="AN32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="0">
         <v>0</v>
@@ -6688,13 +6688,13 @@
         <v>0</v>
       </c>
       <c r="BG32" s="0">
-        <v>0</v>
+        <v>0.85239742732900825</v>
       </c>
       <c r="BH32" s="0">
         <v>0</v>
       </c>
       <c r="BI32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ32" s="0">
         <v>0</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="0">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.51687232109650838</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>0</v>
+        <v>0.68172948737326489</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="BO33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP33" s="0">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="0">
-        <v>0</v>
+        <v>0.68073359925889387</v>
       </c>
       <c r="C34" s="0">
         <v>0</v>
@@ -6953,13 +6953,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="0">
         <v>0</v>
       </c>
       <c r="L34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="0">
         <v>0</v>
@@ -6992,13 +6992,13 @@
         <v>0</v>
       </c>
       <c r="W34" s="0">
-        <v>0</v>
+        <v>0.79706422435565372</v>
       </c>
       <c r="X34" s="0">
         <v>0</v>
       </c>
       <c r="Y34" s="0">
-        <v>0</v>
+        <v>0.7694220463496324</v>
       </c>
       <c r="Z34" s="0">
         <v>0</v>
@@ -7022,16 +7022,16 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.90599044243278049</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.93642599884652888</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="BM34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN34" s="0">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO35" s="0">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>0</v>
+        <v>0.80597583875616652</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="BB35" s="0">
-        <v>0</v>
+        <v>0.53551991171809332</v>
       </c>
       <c r="BC35" s="0">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="BH35" s="0">
-        <v>0</v>
+        <v>0.52691789450262916</v>
       </c>
       <c r="BI35" s="0">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0</v>
+        <v>0.81041887241748212</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="0">
         <v>0</v>
@@ -7425,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="0">
-        <v>0</v>
+        <v>0.813127049942163</v>
       </c>
       <c r="AE36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.50284760813726082</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="0">
-        <v>0</v>
+        <v>0.91808217503350065</v>
       </c>
       <c r="BA36" s="0">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="BN36" s="0">
-        <v>0</v>
+        <v>0.67236935792000152</v>
       </c>
       <c r="BO36" s="0">
         <v>0</v>
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="0">
-        <v>0</v>
+        <v>0.50882922954084897</v>
       </c>
       <c r="I37" s="0">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="0">
-        <v>0</v>
+        <v>0.56880457742812496</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="0">
-        <v>0</v>
+        <v>0.74716126819404161</v>
       </c>
       <c r="AD37" s="0">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="AF37" s="0">
-        <v>0</v>
+        <v>0.66561672831607099</v>
       </c>
       <c r="AG37" s="0">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="0">
         <v>0</v>
@@ -7694,10 +7694,10 @@
         <v>0</v>
       </c>
       <c r="AY37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ37" s="0">
-        <v>0</v>
+        <v>0.88869387457149407</v>
       </c>
       <c r="BA37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0</v>
+        <v>0.75353701531730055</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -7783,13 +7783,13 @@
         <v>0</v>
       </c>
       <c r="L38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="0">
         <v>0</v>
       </c>
       <c r="N38" s="0">
-        <v>0</v>
+        <v>0.58055775918649588</v>
       </c>
       <c r="O38" s="0">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="0">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="0">
-        <v>0</v>
+        <v>0.6627160198880262</v>
       </c>
       <c r="AG38" s="0">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="BJ38" s="0">
-        <v>0</v>
+        <v>0.896214914489468</v>
       </c>
       <c r="BK38" s="0">
         <v>0</v>
@@ -7977,13 +7977,13 @@
         <v>0</v>
       </c>
       <c r="H39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="0">
         <v>0</v>
       </c>
       <c r="J39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="0">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>0</v>
+        <v>0.85719588015696035</v>
       </c>
       <c r="Z39" s="0">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="AX39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="0">
         <v>0</v>
@@ -8112,10 +8112,10 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0</v>
+        <v>0.92503087107184423</v>
       </c>
       <c r="BB39" s="0">
-        <v>0</v>
+        <v>0.6989807014695022</v>
       </c>
       <c r="BC39" s="0">
         <v>0</v>
@@ -8168,13 +8168,13 @@
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>0.88995573451956056</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>0</v>
+        <v>0.71896912840629945</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
@@ -8249,13 +8249,13 @@
         <v>0</v>
       </c>
       <c r="AD40" s="0">
-        <v>0</v>
+        <v>0.72148182634249758</v>
       </c>
       <c r="AE40" s="0">
         <v>0</v>
       </c>
       <c r="AF40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="0">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="0">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.64669451940986999</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="0">
         <v>0</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="BL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM40" s="0">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="0">
-        <v>0</v>
+        <v>0.75223190350088542</v>
       </c>
       <c r="AF41" s="0">
         <v>0</v>
@@ -8485,16 +8485,16 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.97726879186856042</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="BC41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD41" s="0">
         <v>0</v>
@@ -8583,13 +8583,13 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.68099779069214472</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AX42" s="0">
-        <v>0</v>
+        <v>0.89268977847102249</v>
       </c>
       <c r="AY42" s="0">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="BH42" s="0">
-        <v>0</v>
+        <v>0.53230416281868242</v>
       </c>
       <c r="BI42" s="0">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="0">
-        <v>0</v>
+        <v>0.57371337280904244</v>
       </c>
       <c r="N43" s="0">
         <v>0</v>
@@ -8828,10 +8828,10 @@
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="0">
         <v>0</v>
@@ -8852,10 +8852,10 @@
         <v>0</v>
       </c>
       <c r="Y43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="0">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.5670114843924271</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.89023666585321715</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="AX43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="0">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="BC43" s="0">
-        <v>0</v>
+        <v>0.80326893059730964</v>
       </c>
       <c r="BD43" s="0">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="0">
-        <v>0</v>
+        <v>0.82478370815194491</v>
       </c>
       <c r="O44" s="0">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>0</v>
+        <v>0.62701365542526444</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="0">
-        <v>0</v>
+        <v>0.78173766274196066</v>
       </c>
       <c r="Y44" s="0">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="BM44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN44" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0</v>
+        <v>0.59444953479389628</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="W45" s="0">
-        <v>0</v>
+        <v>0.93516830303921017</v>
       </c>
       <c r="X45" s="0">
         <v>0</v>
       </c>
       <c r="Y45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0</v>
+        <v>0.54834008600609607</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.71752634120696368</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.74295847396128045</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
       </c>
       <c r="AW45" s="0">
-        <v>0</v>
+        <v>0.80081313983796965</v>
       </c>
       <c r="AX45" s="0">
         <v>0</v>
@@ -9369,13 +9369,13 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>0</v>
+        <v>0.66739939751993038</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
       </c>
       <c r="BJ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK45" s="0">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="BP45" s="0">
-        <v>1</v>
+        <v>0.57596955029275199</v>
       </c>
     </row>
     <row r="46">
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="0">
-        <v>0</v>
+        <v>0.74397867237267612</v>
       </c>
       <c r="G46" s="0">
         <v>0</v>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>0</v>
+        <v>0.64220679329217401</v>
       </c>
       <c r="O46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BD46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE46" s="0">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         <v>0</v>
       </c>
       <c r="BI46" s="0">
-        <v>0</v>
+        <v>0.9333729181919227</v>
       </c>
       <c r="BJ46" s="0">
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>0</v>
+        <v>0.99123489020698208</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="BN46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO46" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>0</v>
+        <v>0.77732021129232565</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="S47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>0</v>
+        <v>0.84011731970978731</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="0">
-        <v>0</v>
+        <v>0.8532695891729003</v>
       </c>
       <c r="AJ47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.83559094723206573</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM47" s="0">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -9879,16 +9879,16 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>0</v>
+        <v>0.85940286792488507</v>
       </c>
       <c r="Y48" s="0">
-        <v>0</v>
+        <v>0.86209542548209495</v>
       </c>
       <c r="Z48" s="0">
         <v>0</v>
       </c>
       <c r="AA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="AY48" s="0">
-        <v>0</v>
+        <v>0.98508938309824323</v>
       </c>
       <c r="AZ48" s="0">
         <v>0</v>
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="0">
-        <v>0</v>
+        <v>0.8882023306583442</v>
       </c>
       <c r="AT49" s="0">
         <v>0</v>
@@ -10163,13 +10163,13 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0</v>
+        <v>0.71971279505789021</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
       </c>
       <c r="AZ49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10184,13 +10184,13 @@
         <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
       </c>
       <c r="BG49" s="0">
-        <v>0</v>
+        <v>0.83142915537119055</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="BL49" s="0">
-        <v>0</v>
+        <v>0.9903047462337955</v>
       </c>
       <c r="BM49" s="0">
         <v>0</v>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="BP49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="0">
-        <v>0</v>
+        <v>0.91877870449489563</v>
       </c>
       <c r="F50" s="0">
         <v>0</v>
@@ -10249,13 +10249,13 @@
         <v>0</v>
       </c>
       <c r="J50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="0">
         <v>0</v>
       </c>
       <c r="L50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="0">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="0">
-        <v>0</v>
+        <v>0.89653553062758595</v>
       </c>
       <c r="W50" s="0">
         <v>0</v>
@@ -10303,10 +10303,10 @@
         <v>0</v>
       </c>
       <c r="AB50" s="0">
-        <v>0</v>
+        <v>0.97999905722573977</v>
       </c>
       <c r="AC50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="0">
         <v>0</v>
@@ -10336,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="AM50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="0">
         <v>0</v>
@@ -10345,10 +10345,10 @@
         <v>0</v>
       </c>
       <c r="AP50" s="0">
-        <v>0</v>
+        <v>0.61093667005938634</v>
       </c>
       <c r="AQ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0</v>
+        <v>0.57572490425933265</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>0</v>
+        <v>0.50221162615104986</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="BI50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ50" s="0">
         <v>0</v>
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="BO50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP50" s="0">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>0</v>
+        <v>0.95509996620318227</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="0">
         <v>0</v>
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="AV51" s="0">
-        <v>0</v>
+        <v>0.65951567883664231</v>
       </c>
       <c r="AW51" s="0">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="BE51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
@@ -10605,10 +10605,10 @@
         <v>0</v>
       </c>
       <c r="BH51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>0</v>
+        <v>0.81766984836659518</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -10688,10 +10688,10 @@
         <v>0</v>
       </c>
       <c r="S52" s="0">
-        <v>0</v>
+        <v>0.90061184510357895</v>
       </c>
       <c r="T52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" s="0">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>0</v>
+        <v>0.69391996016347712</v>
       </c>
       <c r="Y52" s="0">
         <v>0</v>
@@ -10739,10 +10739,10 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>0</v>
+        <v>0.64413652275157396</v>
       </c>
       <c r="AK52" s="0">
-        <v>0</v>
+        <v>0.58820352433167378</v>
       </c>
       <c r="AL52" s="0">
         <v>0</v>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX52" s="0">
         <v>0</v>
@@ -10790,13 +10790,13 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0</v>
+        <v>0.65548907381932708</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
       </c>
       <c r="BC52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0</v>
+        <v>0.76653595011481923</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="0">
-        <v>0</v>
+        <v>0.93722139133882487</v>
       </c>
       <c r="K53" s="0">
         <v>0</v>
@@ -10915,13 +10915,13 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0</v>
+        <v>0.63726216168248861</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
       </c>
       <c r="AB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="0">
         <v>0</v>
@@ -10954,10 +10954,10 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0</v>
+        <v>0.97918421218521745</v>
       </c>
       <c r="AN53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0</v>
+        <v>0.91613478678839355</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11067,10 +11067,10 @@
         <v>0</v>
       </c>
       <c r="H54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="0">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="AA54" s="0">
-        <v>0</v>
+        <v>0.83355062433352556</v>
       </c>
       <c r="AB54" s="0">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="AI54" s="0">
-        <v>0</v>
+        <v>0.51486829660709144</v>
       </c>
       <c r="AJ54" s="0">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="AM54" s="0">
-        <v>0</v>
+        <v>0.78578429450658405</v>
       </c>
       <c r="AN54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.58445421931719088</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11252,7 +11252,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0</v>
+        <v>0.84892197520185442</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="0">
-        <v>0</v>
+        <v>0.94657977719914999</v>
       </c>
       <c r="V55" s="0">
         <v>0</v>
@@ -11327,22 +11327,22 @@
         <v>0</v>
       </c>
       <c r="Z55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="0">
         <v>0</v>
       </c>
       <c r="AC55" s="0">
-        <v>0</v>
+        <v>0.7501356391639773</v>
       </c>
       <c r="AD55" s="0">
         <v>0</v>
       </c>
       <c r="AE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="0">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="AO55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="0">
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>0</v>
+        <v>0.88302908923399881</v>
       </c>
       <c r="AR55" s="0">
         <v>0</v>
@@ -11399,13 +11399,13 @@
         <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>0</v>
+        <v>0.99314589079414417</v>
       </c>
       <c r="AY55" s="0">
         <v>0</v>
       </c>
       <c r="AZ55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="0">
         <v>0</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="BG55" s="0">
-        <v>0</v>
+        <v>0.59778687316609536</v>
       </c>
       <c r="BH55" s="0">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11491,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="0">
-        <v>0</v>
+        <v>0.67455209345438072</v>
       </c>
       <c r="M56" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>0</v>
+        <v>0.55785227500028312</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="AT56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.53163241126054039</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="BN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO56" s="0">
         <v>0</v>
@@ -11664,7 +11664,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>0</v>
+        <v>0.63812866047887329</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0</v>
+        <v>0.65845503131286021</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11808,13 +11808,13 @@
         <v>0</v>
       </c>
       <c r="AW57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="0">
         <v>0</v>
       </c>
       <c r="AY57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="0">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.68597994971384912</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11897,13 +11897,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="0">
         <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="0">
         <v>0</v>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="0">
-        <v>0</v>
+        <v>0.86503426912512338</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.72475629047610202</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>0</v>
+        <v>0.87838787545395736</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12166,10 +12166,10 @@
         <v>0</v>
       </c>
       <c r="AE59" s="0">
-        <v>0</v>
+        <v>0.59739133481206974</v>
       </c>
       <c r="AF59" s="0">
-        <v>0</v>
+        <v>0.96955237486895696</v>
       </c>
       <c r="AG59" s="0">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>0</v>
+        <v>0.68345113312219041</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="BC59" s="0">
-        <v>0</v>
+        <v>0.84611936907841634</v>
       </c>
       <c r="BD59" s="0">
         <v>0</v>
@@ -12256,10 +12256,10 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
-        <v>0</v>
+        <v>0.65860528579302724</v>
       </c>
       <c r="BK59" s="0">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="BN59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO59" s="0">
         <v>0</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="0">
-        <v>0</v>
+        <v>0.8111054118411084</v>
       </c>
       <c r="O60" s="0">
         <v>0</v>
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="0">
         <v>0</v>
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="0">
-        <v>0</v>
+        <v>0.95192966312890748</v>
       </c>
       <c r="AF60" s="0">
         <v>0</v>
@@ -12384,10 +12384,10 @@
         <v>0</v>
       </c>
       <c r="AI60" s="0">
-        <v>0</v>
+        <v>0.63113149229564047</v>
       </c>
       <c r="AJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK60" s="0">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="0">
-        <v>0</v>
+        <v>0.80583919819852334</v>
       </c>
       <c r="AQ60" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0</v>
+        <v>0.63551416497994162</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="AY60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ60" s="0">
         <v>0</v>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="0">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="0">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="0">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="AT61" s="0">
-        <v>0</v>
+        <v>0.54245640285383245</v>
       </c>
       <c r="AU61" s="0">
         <v>0</v>
@@ -12635,10 +12635,10 @@
         <v>0</v>
       </c>
       <c r="AX61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>0</v>
+        <v>0.74123540790544928</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="BN61" s="0">
-        <v>0</v>
+        <v>0.96709123992446711</v>
       </c>
       <c r="BO61" s="0">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="0">
-        <v>0</v>
+        <v>0.51969809543953827</v>
       </c>
       <c r="AM62" s="0">
         <v>0</v>
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="0">
         <v>0</v>
@@ -12868,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="BG62" s="0">
-        <v>0</v>
+        <v>0.7541904855406194</v>
       </c>
       <c r="BH62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.80416792731064302</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="0">
-        <v>0</v>
+        <v>0.94063043961733928</v>
       </c>
       <c r="G63" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>0</v>
+        <v>0.9609561897187664</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0</v>
+        <v>0.81833360795675536</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.89235702653929883</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>0</v>
+        <v>0.63609620933875155</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -13154,13 +13154,13 @@
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>0</v>
+        <v>0.50268019206714076</v>
       </c>
       <c r="R64" s="0">
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="0">
         <v>0</v>
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="AN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO64" s="0">
         <v>0</v>
@@ -13244,13 +13244,13 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
       </c>
       <c r="AW64" s="0">
-        <v>0</v>
+        <v>0.76483838258665138</v>
       </c>
       <c r="AX64" s="0">
         <v>0</v>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="0">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="0">
-        <v>0</v>
+        <v>0.68243928989115821</v>
       </c>
       <c r="N65" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="AR65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.74919690571821662</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66" s="0">
         <v>0</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="0">
-        <v>0</v>
+        <v>0.74155609315959126</v>
       </c>
       <c r="AC66" s="0">
         <v>0</v>
@@ -13620,10 +13620,10 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>0</v>
+        <v>0.62640007356705996</v>
       </c>
       <c r="AJ66" s="0">
-        <v>0</v>
+        <v>0.98880335140018849</v>
       </c>
       <c r="AK66" s="0">
         <v>0</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="0">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="BD66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE66" s="0">
         <v>0</v>
@@ -13692,13 +13692,13 @@
         <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
       </c>
       <c r="BI66" s="0">
-        <v>0</v>
+        <v>0.52213344928433081</v>
       </c>
       <c r="BJ66" s="0">
         <v>0</v>
@@ -13754,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="0">
         <v>0</v>
@@ -13799,10 +13799,10 @@
         <v>0</v>
       </c>
       <c r="Z67" s="0">
-        <v>0</v>
+        <v>0.50771172034838108</v>
       </c>
       <c r="AA67" s="0">
-        <v>0</v>
+        <v>0.68013825298273622</v>
       </c>
       <c r="AB67" s="0">
         <v>0</v>
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="AG67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH67" s="0">
         <v>0</v>
@@ -13871,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="AX67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.90216146148867349</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13945,10 +13945,10 @@
         <v>0</v>
       </c>
       <c r="F68" s="0">
-        <v>0</v>
+        <v>0.85618508514265246</v>
       </c>
       <c r="G68" s="0">
-        <v>0</v>
+        <v>0.79201459615957903</v>
       </c>
       <c r="H68" s="0">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0">
-        <v>1</v>
+        <v>0.84094746361536243</v>
       </c>
       <c r="Y68" s="0">
         <v>0</v>
@@ -14014,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="0">
         <v>0</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="0">
-        <v>1</v>
+        <v>0.5375905196155677</v>
       </c>
       <c r="AT68" s="0">
         <v>0</v>
@@ -14074,13 +14074,13 @@
         <v>0</v>
       </c>
       <c r="AW68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="0">
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject49.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject49.xlsx
@@ -290,7 +290,7 @@
         <v>0</v>
       </c>
       <c r="BC1" s="0">
-        <v>0.76479450725374787</v>
+        <v>0.84892197520185442</v>
       </c>
       <c r="BD1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.56850399911846883</v>
+        <v>0.9214076188898499</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="0">
-        <v>0.60827426370460924</v>
+        <v>0.85706582242758311</v>
       </c>
       <c r="U2" s="0">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="0">
-        <v>0.8483014726529684</v>
+        <v>0.9215184330405326</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.63851507567667687</v>
+        <v>0.65361971362018489</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.69592110629635295</v>
+        <v>0.88995573451956056</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.53786889864089349</v>
+        <v>0.86931044066131258</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.9602477469803502</v>
+        <v>0.99877772717152946</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.61736373846842474</v>
+        <v>0.89721737022191972</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="0">
-        <v>0.80976970869232301</v>
+        <v>0.91877870449489563</v>
       </c>
       <c r="AY5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.95002064730576374</v>
+        <v>0.96828851279161354</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>0.57763629035995512</v>
+        <v>0.85618508514265246</v>
       </c>
     </row>
     <row r="7">
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="0">
-        <v>0.52715600783739847</v>
+        <v>0.97399756078742827</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>0.81647444380795808</v>
+        <v>0.88943863170925663</v>
       </c>
       <c r="U7" s="0">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="0">
-        <v>0.54672078154829795</v>
+        <v>0.79201459615957903</v>
       </c>
     </row>
     <row r="8">
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.6703698810814247</v>
+        <v>0.73629270878278896</v>
       </c>
       <c r="L8" s="0">
         <v>0</v>
@@ -2006,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0.66913543994272873</v>
+        <v>0.6734821408147913</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.65778484775614743</v>
+        <v>0.69014462900448814</v>
       </c>
       <c r="L10" s="0">
-        <v>0.57407535223811357</v>
+        <v>0.91003265659684751</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>0.57066536102915744</v>
+        <v>0.76014910123359036</v>
       </c>
       <c r="W10" s="0">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="0">
-        <v>0.51319266311995537</v>
+        <v>0.93722139133882487</v>
       </c>
       <c r="BB10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.70412287147315644</v>
+        <v>0.72215456977848436</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>0.76426821035567083</v>
+        <v>0.93382542006045366</v>
       </c>
       <c r="W12" s="0">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="0">
-        <v>0.56681366766530317</v>
+        <v>0.65296125468578081</v>
       </c>
       <c r="AG12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0.72215456977848436</v>
       </c>
       <c r="L13" s="0">
-        <v>0.74496013776022685</v>
+        <v>0.9113797286812908</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>0.65170835057162924</v>
+        <v>0.77732021129232565</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="0">
-        <v>0.67302503350472676</v>
+        <v>0.68243928989115821</v>
       </c>
       <c r="BN13" s="0">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>0.55240719097303892</v>
+        <v>0.65331949248378374</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="0">
-        <v>0.60889779262144206</v>
+        <v>0.82478370815194491</v>
       </c>
       <c r="AS14" s="0">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0.79724292393237639</v>
+        <v>0.85745035192893249</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="0">
-        <v>0.97357544715501299</v>
+        <v>0.99284325150558228</v>
       </c>
       <c r="V15" s="0">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="0">
-        <v>0.62070046210816132</v>
+        <v>0.64728889352569086</v>
       </c>
       <c r="V16" s="0">
         <v>0.87716038845066935</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="0">
-        <v>0.73175859951152589</v>
+        <v>0.9907399758149753</v>
       </c>
       <c r="AC17" s="0">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="0">
-        <v>0.78804499687715934</v>
+        <v>0.94381600460354953</v>
       </c>
       <c r="J18" s="0">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="0">
-        <v>0.50855696500898961</v>
+        <v>0.8853777550643136</v>
       </c>
       <c r="AE18" s="0">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.55819871789602149</v>
+        <v>0.67834037941239855</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>0.59344109396478439</v>
+        <v>0.84011731970978731</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.64162247455063959</v>
+        <v>0.80533074282435058</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="BC21" s="0">
-        <v>0.69079457442931336</v>
+        <v>0.94657977719914999</v>
       </c>
       <c r="BD21" s="0">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="0">
-        <v>0.66791656278969525</v>
+        <v>0.94171323209482627</v>
       </c>
       <c r="J22" s="0">
         <v>0.76014910123359036</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="0">
-        <v>0.75580490525779243</v>
+        <v>0.87716038845066935</v>
       </c>
       <c r="Q22" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.94369626703090748</v>
+        <v>0.96400808557387596</v>
       </c>
       <c r="U22" s="0">
         <v>0.80533074282435058</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.56418746681899479</v>
+        <v>0.83065961999859761</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="0">
-        <v>0.79107277350997995</v>
+        <v>0.89653553062758595</v>
       </c>
       <c r="AY22" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.52891465032850138</v>
+        <v>0.5357179668487233</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>0.78344425281641872</v>
+        <v>0.79706422435565372</v>
       </c>
       <c r="AI23" s="0">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="0">
-        <v>0.79078264332945647</v>
+        <v>0.93516830303921017</v>
       </c>
       <c r="AT23" s="0">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="0">
-        <v>0.75431305640523827</v>
+        <v>0.78173766274196066</v>
       </c>
       <c r="AS24" s="0">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>0.71982270775478008</v>
+        <v>0.95509996620318227</v>
       </c>
       <c r="AZ24" s="0">
         <v>0.76412877547509472</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="BP24" s="0">
-        <v>0.54531890786036885</v>
+        <v>0.84094746361536243</v>
       </c>
     </row>
     <row r="25">
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="AH25" s="0">
-        <v>0.55545868816065846</v>
+        <v>0.7694220463496324</v>
       </c>
       <c r="AI25" s="0">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>0.75739185201588199</v>
+        <v>0.90511342795354999</v>
       </c>
       <c r="U26" s="0">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="BB27" s="0">
-        <v>0.7342241939668448</v>
+        <v>0.83355062433352556</v>
       </c>
       <c r="BC27" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.92383713687393909</v>
+        <v>0.9918568157891996</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="AX28" s="0">
-        <v>0.97751722117684636</v>
+        <v>0.97999905722573977</v>
       </c>
       <c r="AY28" s="0">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="BN28" s="0">
-        <v>0.6796119477980993</v>
+        <v>0.74155609315959126</v>
       </c>
       <c r="BO28" s="0">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0.77450865920358114</v>
+        <v>0.91429993199943538</v>
       </c>
       <c r="O30" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.54628013872307912</v>
+        <v>0.61075012192089551</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="AO31" s="0">
-        <v>0.7020298106941536</v>
+        <v>0.75223190350088542</v>
       </c>
       <c r="AP31" s="0">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>0.97045767969754337</v>
       </c>
       <c r="BH31" s="0">
-        <v>0.94666957917397765</v>
+        <v>0.95192966312890748</v>
       </c>
       <c r="BI31" s="0">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="BG32" s="0">
-        <v>0.85239742732900825</v>
+        <v>0.96955237486895696</v>
       </c>
       <c r="BH32" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.51687232109650838</v>
+        <v>0.90599044243278049</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="0">
-        <v>0.68073359925889387</v>
+        <v>0.8470181232686701</v>
       </c>
       <c r="C34" s="0">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>0.80597583875616652</v>
+        <v>0.8532695891729003</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="BH35" s="0">
-        <v>0.52691789450262916</v>
+        <v>0.63113149229564047</v>
       </c>
       <c r="BI35" s="0">
         <v>0</v>
@@ -7425,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="0">
-        <v>0.813127049942163</v>
+        <v>0.89877826942234884</v>
       </c>
       <c r="AE36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.50284760813726082</v>
+        <v>0.93642599884652888</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="BN36" s="0">
-        <v>0.67236935792000152</v>
+        <v>0.98880335140018849</v>
       </c>
       <c r="BO36" s="0">
         <v>0</v>
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="0">
-        <v>0.50882922954084897</v>
+        <v>0.83443671216032833</v>
       </c>
       <c r="I37" s="0">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="0">
-        <v>0.56880457742812496</v>
+        <v>0.60907155970167381</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="0">
-        <v>0.74716126819404161</v>
+        <v>0.82589720752407547</v>
       </c>
       <c r="AD37" s="0">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="AF37" s="0">
-        <v>0.66561672831607099</v>
+        <v>0.98036363278298966</v>
       </c>
       <c r="AG37" s="0">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="0">
-        <v>0.58055775918649588</v>
+        <v>0.75752671727213627</v>
       </c>
       <c r="O38" s="0">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="0">
-        <v>0.6627160198880262</v>
+        <v>0.8857786333997083</v>
       </c>
       <c r="AG38" s="0">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>0.85719588015696035</v>
+        <v>0.87936508436470806</v>
       </c>
       <c r="Z39" s="0">
         <v>0</v>
@@ -8112,10 +8112,10 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0.92503087107184423</v>
+        <v>0.97918421218521745</v>
       </c>
       <c r="BB39" s="0">
-        <v>0.6989807014695022</v>
+        <v>0.78578429450658405</v>
       </c>
       <c r="BC39" s="0">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>0.71896912840629945</v>
+        <v>0.95395960836827054</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="AD40" s="0">
-        <v>0.72148182634249758</v>
+        <v>0.91152595325432406</v>
       </c>
       <c r="AE40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.64669451940986999</v>
+        <v>0.68099779069214472</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="BH42" s="0">
-        <v>0.53230416281868242</v>
+        <v>0.80583919819852334</v>
       </c>
       <c r="BI42" s="0">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="0">
-        <v>0.57371337280904244</v>
+        <v>0.6910549470509737</v>
       </c>
       <c r="N43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.5670114843924271</v>
+        <v>0.97726879186856042</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="BC43" s="0">
-        <v>0.80326893059730964</v>
+        <v>0.88302908923399881</v>
       </c>
       <c r="BD43" s="0">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>0.62701365542526444</v>
+        <v>0.94317411680165097</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0.59444953479389628</v>
+        <v>0.64736556033184378</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0.54834008600609607</v>
+        <v>0.68172948737326489</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.71752634120696368</v>
+        <v>0.89023666585321715</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.74295847396128045</v>
+        <v>0.83559094723206573</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
       </c>
       <c r="AW45" s="0">
-        <v>0.80081313983796965</v>
+        <v>0.8882023306583442</v>
       </c>
       <c r="AX45" s="0">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="0">
-        <v>0.74397867237267612</v>
+        <v>0.97511844814730009</v>
       </c>
       <c r="G46" s="0">
         <v>0</v>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>0.64220679329217401</v>
+        <v>0.65722853594477004</v>
       </c>
       <c r="O46" s="0">
         <v>0</v>
@@ -9879,10 +9879,10 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>0.85940286792488507</v>
+        <v>0.87299109618799053</v>
       </c>
       <c r="Y48" s="0">
-        <v>0.86209542548209495</v>
+        <v>0.88185160381032546</v>
       </c>
       <c r="Z48" s="0">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="0">
-        <v>0.61093667005938634</v>
+        <v>0.89268977847102249</v>
       </c>
       <c r="AQ50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.57572490425933265</v>
+        <v>0.71971279505789021</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>0.50221162615104986</v>
+        <v>0.99314589079414417</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="AV51" s="0">
-        <v>0.65951567883664231</v>
+        <v>0.98508938309824323</v>
       </c>
       <c r="AW51" s="0">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="0">
-        <v>0.90061184510357895</v>
+        <v>0.97933868041102157</v>
       </c>
       <c r="T52" s="0">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>0.69391996016347712</v>
+        <v>0.76412877547509472</v>
       </c>
       <c r="Y52" s="0">
         <v>0</v>
@@ -10739,10 +10739,10 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>0.64413652275157396</v>
+        <v>0.91808217503350065</v>
       </c>
       <c r="AK52" s="0">
-        <v>0.58820352433167378</v>
+        <v>0.88869387457149407</v>
       </c>
       <c r="AL52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.65548907381932708</v>
+        <v>0.91613478678839355</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.76653595011481923</v>
+        <v>0.89931623710093778</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0.63726216168248861</v>
+        <v>0.70935522835363041</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="AI54" s="0">
-        <v>0.51486829660709144</v>
+        <v>0.53551991171809332</v>
       </c>
       <c r="AJ54" s="0">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="0">
-        <v>0.7501356391639773</v>
+        <v>0.90155234351662961</v>
       </c>
       <c r="AD55" s="0">
         <v>0</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="BG55" s="0">
-        <v>0.59778687316609536</v>
+        <v>0.84611936907841634</v>
       </c>
       <c r="BH55" s="0">
         <v>0</v>
@@ -11491,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="0">
-        <v>0.67455209345438072</v>
+        <v>0.70905830735678421</v>
       </c>
       <c r="M56" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>0.55785227500028312</v>
+        <v>0.82997113978693848</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.53163241126054039</v>
+        <v>0.58445421931719088</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>0.63812866047887329</v>
+        <v>0.93289074919402015</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0.65845503131286021</v>
+        <v>0.75353701531730055</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.68597994971384912</v>
+        <v>0.72475629047610202</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="0">
-        <v>0.86503426912512338</v>
+        <v>0.97399507759691495</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="0">
-        <v>0.59739133481206974</v>
+        <v>0.97045767969754337</v>
       </c>
       <c r="AF59" s="0">
         <v>0.96955237486895696</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>0.68345113312219041</v>
+        <v>0.83142915537119055</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="0">
-        <v>0.65860528579302724</v>
+        <v>0.7541904855406194</v>
       </c>
       <c r="BK59" s="0">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="0">
-        <v>0.8111054118411084</v>
+        <v>0.8785435366797083</v>
       </c>
       <c r="O60" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0.63551416497994162</v>
+        <v>0.66739939751993038</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="AT61" s="0">
-        <v>0.54245640285383245</v>
+        <v>0.9333729181919227</v>
       </c>
       <c r="AU61" s="0">
         <v>0</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>0.74123540790544928</v>
+        <v>0.81766984836659518</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="0">
-        <v>0.51969809543953827</v>
+        <v>0.896214914489468</v>
       </c>
       <c r="AM62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.80416792731064302</v>
+        <v>0.89235702653929883</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="0">
-        <v>0.94063043961733928</v>
+        <v>0.98600872639699255</v>
       </c>
       <c r="G63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>0.9609561897187664</v>
+        <v>0.99123489020698208</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0.81833360795675536</v>
+        <v>0.87838787545395736</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>0.63609620933875155</v>
+        <v>0.72533955962475238</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>0.50268019206714076</v>
+        <v>0.8153965331121712</v>
       </c>
       <c r="R64" s="0">
         <v>0</v>
@@ -13250,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="AW64" s="0">
-        <v>0.76483838258665138</v>
+        <v>0.9903047462337955</v>
       </c>
       <c r="AX64" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.74919690571821662</v>
+        <v>0.90216146148867349</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>0.62640007356705996</v>
+        <v>0.81041887241748212</v>
       </c>
       <c r="AJ66" s="0">
         <v>0.98880335140018849</v>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="BI66" s="0">
-        <v>0.52213344928433081</v>
+        <v>0.96709123992446711</v>
       </c>
       <c r="BJ66" s="0">
         <v>0</v>
@@ -13799,10 +13799,10 @@
         <v>0</v>
       </c>
       <c r="Z67" s="0">
-        <v>0.50771172034838108</v>
+        <v>0.63013367379260687</v>
       </c>
       <c r="AA67" s="0">
-        <v>0.68013825298273622</v>
+        <v>0.97269174691881521</v>
       </c>
       <c r="AB67" s="0">
         <v>0</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="0">
-        <v>0.5375905196155677</v>
+        <v>0.57596955029275199</v>
       </c>
       <c r="AT68" s="0">
         <v>0</v>
